--- a/orden_pruebas_participantes.xlsx
+++ b/orden_pruebas_participantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc2\Proyecto_Alphamini\python-alphamini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65F2EB-55AE-4D76-80BD-F57406454744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B29496-8BF6-48C1-8E80-F7DEF61907DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="8">
   <si>
     <t>Participante</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Realidad Virtual</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,17 +95,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,18 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +450,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -445,7 +468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -459,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -473,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -487,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -501,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -515,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -529,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -543,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -557,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -571,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -585,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -599,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -613,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -627,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>

--- a/orden_pruebas_participantes.xlsx
+++ b/orden_pruebas_participantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc2\Proyecto_Alphamini\python-alphamini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B29496-8BF6-48C1-8E80-F7DEF61907DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A5B88D-A60E-4E74-9D49-FB01CF81DE23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="10">
   <si>
     <t>Participante</t>
   </si>
@@ -45,12 +45,18 @@
   <si>
     <t>Fecha</t>
   </si>
+  <si>
+    <t>Fecha2</t>
+  </si>
+  <si>
+    <t>Fecha3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +69,61 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -112,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -123,11 +177,118 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -138,6 +299,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2499FB48-2C7C-4058-9E12-2315123152A4}" name="Tabla1" displayName="Tabla1" ref="A1:G31" totalsRowShown="0" dataDxfId="6" headerRowBorderDxfId="8">
+  <autoFilter ref="A1:G31" xr:uid="{B48BDEA0-A0F5-4D60-AAD9-32A95ACB81B5}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E5057C84-AAE2-48AC-A125-8A16C254CD59}" name="Participante" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A6BD54E7-6B2B-4DA8-B34C-88649A2A5FEE}" name="Prueba 1" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B7EE89AF-9075-4A44-B9CE-D452460D15E6}" name="Fecha" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4E02A82E-35BA-41FC-AF7F-42C096654D75}" name="Prueba 2" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{6E26AC98-3BA3-481F-B9E3-86F5F7F499CE}" name="Fecha2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A606BD44-38B0-4B17-9170-E669A7CF66B5}" name="Prueba 3" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{8CB17870-2202-4101-B3B9-74F11BCC8454}" name="Fecha3" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,462 +602,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="1" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="B11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="B13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="B17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="B19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="B20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="B22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="B23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="B24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="B25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="B26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="B27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="B28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="B29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="B30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/orden_pruebas_participantes.xlsx
+++ b/orden_pruebas_participantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc2\Proyecto_Alphamini\python-alphamini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A5B88D-A60E-4E74-9D49-FB01CF81DE23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777893FE-2C89-4514-9E9D-493060D7BA90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="11">
   <si>
     <t>Participante</t>
   </si>
@@ -46,10 +46,13 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Fecha2</t>
+    <t>Fecha 2</t>
   </si>
   <si>
-    <t>Fecha3</t>
+    <t>Fecha 3</t>
+  </si>
+  <si>
+    <t>Fecha Control</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,12 +106,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -122,6 +119,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -174,9 +189,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,24 +204,60 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -240,25 +288,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -302,16 +332,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2499FB48-2C7C-4058-9E12-2315123152A4}" name="Tabla1" displayName="Tabla1" ref="A1:G31" totalsRowShown="0" dataDxfId="6" headerRowBorderDxfId="8">
-  <autoFilter ref="A1:G31" xr:uid="{B48BDEA0-A0F5-4D60-AAD9-32A95ACB81B5}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E5057C84-AAE2-48AC-A125-8A16C254CD59}" name="Participante" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A6BD54E7-6B2B-4DA8-B34C-88649A2A5FEE}" name="Prueba 1" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B7EE89AF-9075-4A44-B9CE-D452460D15E6}" name="Fecha" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4E02A82E-35BA-41FC-AF7F-42C096654D75}" name="Prueba 2" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{6E26AC98-3BA3-481F-B9E3-86F5F7F499CE}" name="Fecha2" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{A606BD44-38B0-4B17-9170-E669A7CF66B5}" name="Prueba 3" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{8CB17870-2202-4101-B3B9-74F11BCC8454}" name="Fecha3" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2499FB48-2C7C-4058-9E12-2315123152A4}" name="Tabla1" displayName="Tabla1" ref="A1:H31" totalsRowShown="0" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A1:H31" xr:uid="{B48BDEA0-A0F5-4D60-AAD9-32A95ACB81B5}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E5057C84-AAE2-48AC-A125-8A16C254CD59}" name="Participante" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{5F96A05F-127E-4BC2-A5D5-D505EE853E92}" name="Fecha Control" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A6BD54E7-6B2B-4DA8-B34C-88649A2A5FEE}" name="Prueba 1" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B7EE89AF-9075-4A44-B9CE-D452460D15E6}" name="Fecha" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{4E02A82E-35BA-41FC-AF7F-42C096654D75}" name="Prueba 2" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{6E26AC98-3BA3-481F-B9E3-86F5F7F499CE}" name="Fecha 2" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A606BD44-38B0-4B17-9170-E669A7CF66B5}" name="Prueba 3" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{8CB17870-2202-4101-B3B9-74F11BCC8454}" name="Fecha 3" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,558 +633,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="B2" s="8"/>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="B4" s="8"/>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="B11" s="8"/>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="B12" s="8"/>
+      <c r="C12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="B13" s="8"/>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="B14" s="8"/>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="B15" s="8"/>
+      <c r="C15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="B16" s="8"/>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="B17" s="8"/>
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="B18" s="8"/>
+      <c r="C18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="B19" s="8"/>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="B20" s="8"/>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="B21" s="8"/>
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="B22" s="8"/>
+      <c r="C22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="B23" s="8"/>
+      <c r="C23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="B24" s="8"/>
+      <c r="C24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="B25" s="8"/>
+      <c r="C25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="B26" s="8"/>
+      <c r="C26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="B27" s="8"/>
+      <c r="C27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="B28" s="8"/>
+      <c r="C28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="B29" s="8"/>
+      <c r="C29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="B30" s="8"/>
+      <c r="C30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
